--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spp1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spp1-Itga9.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H2">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I2">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J2">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N2">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O2">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P2">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q2">
-        <v>3.667364827180667</v>
+        <v>110.2383951455189</v>
       </c>
       <c r="R2">
-        <v>33.006283444626</v>
+        <v>992.14555630967</v>
       </c>
       <c r="S2">
-        <v>5.718376885230938E-05</v>
+        <v>0.0008455561768243898</v>
       </c>
       <c r="T2">
-        <v>5.718376885230937E-05</v>
+        <v>0.0008455561768243897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H3">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I3">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J3">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.815932</v>
       </c>
       <c r="O3">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P3">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q3">
-        <v>5.098064311025333</v>
+        <v>97.23812614800578</v>
       </c>
       <c r="R3">
-        <v>45.882578799228</v>
+        <v>875.1431353320519</v>
       </c>
       <c r="S3">
-        <v>7.949209988469984E-05</v>
+        <v>0.0007458408486330153</v>
       </c>
       <c r="T3">
-        <v>7.949209988469984E-05</v>
+        <v>0.0007458408486330152</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H4">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I4">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J4">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N4">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O4">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P4">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q4">
-        <v>11.937499480515</v>
+        <v>33.35630325957199</v>
       </c>
       <c r="R4">
-        <v>107.437495324635</v>
+        <v>300.206729336148</v>
       </c>
       <c r="S4">
-        <v>0.0001861367066371508</v>
+        <v>0.0002558512233412636</v>
       </c>
       <c r="T4">
-        <v>0.0001861367066371508</v>
+        <v>0.0002558512233412636</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H5">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I5">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J5">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N5">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O5">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P5">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q5">
-        <v>0.5198861066846667</v>
+        <v>6.630313577787666</v>
       </c>
       <c r="R5">
-        <v>4.678974960162001</v>
+        <v>59.67282220008899</v>
       </c>
       <c r="S5">
-        <v>8.106378382059582E-06</v>
+        <v>5.08561703259599E-05</v>
       </c>
       <c r="T5">
-        <v>8.106378382059582E-06</v>
+        <v>5.08561703259599E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H6">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I6">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J6">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N6">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O6">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P6">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q6">
-        <v>0.8932382367130001</v>
+        <v>17.62729017188756</v>
       </c>
       <c r="R6">
-        <v>8.039144130417</v>
+        <v>158.645611546988</v>
       </c>
       <c r="S6">
-        <v>1.392791043848998E-05</v>
+        <v>0.0001352057426619862</v>
       </c>
       <c r="T6">
-        <v>1.392791043848997E-05</v>
+        <v>0.0001352057426619862</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H7">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I7">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J7">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N7">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O7">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P7">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q7">
-        <v>16.67863529960934</v>
+        <v>89.83702296249633</v>
       </c>
       <c r="R7">
-        <v>150.107717696484</v>
+        <v>808.5332066624669</v>
       </c>
       <c r="S7">
-        <v>0.0002600633617566849</v>
+        <v>0.0006890725284342196</v>
       </c>
       <c r="T7">
-        <v>0.0002600633617566849</v>
+        <v>0.0006890725284342194</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I8">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J8">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N8">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O8">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P8">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q8">
-        <v>58.85763898163666</v>
+        <v>92.75777703651667</v>
       </c>
       <c r="R8">
-        <v>529.7187508347299</v>
+        <v>834.8199933286501</v>
       </c>
       <c r="S8">
-        <v>0.0009177438791400555</v>
+        <v>0.0007114754457210039</v>
       </c>
       <c r="T8">
-        <v>0.0009177438791400555</v>
+        <v>0.0007114754457210039</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I9">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J9">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>10.815932</v>
       </c>
       <c r="O9">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P9">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q9">
         <v>81.81897434899332</v>
@@ -1013,10 +1013,10 @@
         <v>736.37076914094</v>
       </c>
       <c r="S9">
-        <v>0.001275770897465548</v>
+        <v>0.0006275720818586302</v>
       </c>
       <c r="T9">
-        <v>0.001275770897465548</v>
+        <v>0.0006275720818586302</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I10">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J10">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N10">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O10">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P10">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q10">
-        <v>191.585257501575</v>
+        <v>28.06695921534</v>
       </c>
       <c r="R10">
-        <v>1724.267317514175</v>
+        <v>252.60263293806</v>
       </c>
       <c r="S10">
-        <v>0.002987313124476482</v>
+        <v>0.0002152806261183461</v>
       </c>
       <c r="T10">
-        <v>0.002987313124476483</v>
+        <v>0.0002152806261183462</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I11">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J11">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N11">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O11">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P11">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q11">
-        <v>8.343666425556666</v>
+        <v>5.578937789494999</v>
       </c>
       <c r="R11">
-        <v>75.09299783000999</v>
+        <v>50.210440105455</v>
       </c>
       <c r="S11">
-        <v>0.0001300994896181628</v>
+        <v>4.279185397972711E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001300994896181629</v>
+        <v>4.279185397972712E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I12">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J12">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N12">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O12">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P12">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q12">
-        <v>14.335605029365</v>
+        <v>14.83211225420667</v>
       </c>
       <c r="R12">
-        <v>129.020445264285</v>
+        <v>133.48901028786</v>
       </c>
       <c r="S12">
-        <v>0.000223529417712013</v>
+        <v>0.0001137660260324188</v>
       </c>
       <c r="T12">
-        <v>0.000223529417712013</v>
+        <v>0.0001137660260324188</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I13">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J13">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N13">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O13">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P13">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q13">
-        <v>267.6758766663133</v>
+        <v>75.59147186948499</v>
       </c>
       <c r="R13">
-        <v>2409.08288999682</v>
+        <v>680.3232468253649</v>
       </c>
       <c r="S13">
-        <v>0.004173764045829321</v>
+        <v>0.0005798055738213303</v>
       </c>
       <c r="T13">
-        <v>0.004173764045829322</v>
+        <v>0.0005798055738213303</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H14">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I14">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J14">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N14">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O14">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P14">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q14">
-        <v>2507.485343154487</v>
+        <v>4961.83822555155</v>
       </c>
       <c r="R14">
-        <v>22567.36808839038</v>
+        <v>44656.54402996395</v>
       </c>
       <c r="S14">
-        <v>0.03909822693416918</v>
+        <v>0.03805854534148692</v>
       </c>
       <c r="T14">
-        <v>0.03909822693416918</v>
+        <v>0.03805854534148692</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H15">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I15">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J15">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>10.815932</v>
       </c>
       <c r="O15">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P15">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q15">
-        <v>3485.696717057283</v>
+        <v>4376.69516746218</v>
       </c>
       <c r="R15">
-        <v>31371.27045351555</v>
+        <v>39390.25650715962</v>
       </c>
       <c r="S15">
-        <v>0.05435108988343849</v>
+        <v>0.03357035112893273</v>
       </c>
       <c r="T15">
-        <v>0.0543510898834385</v>
+        <v>0.03357035112893273</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H16">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I16">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J16">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N16">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O16">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P16">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q16">
-        <v>8162.019976702759</v>
+        <v>1501.36964855082</v>
       </c>
       <c r="R16">
-        <v>73458.17979032484</v>
+        <v>13512.32683695738</v>
       </c>
       <c r="S16">
-        <v>0.1272671484048972</v>
+        <v>0.01151588226908629</v>
       </c>
       <c r="T16">
-        <v>0.1272671484048972</v>
+        <v>0.01151588226908629</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H17">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I17">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J17">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N17">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O17">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P17">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q17">
-        <v>355.4614427666897</v>
+        <v>298.4308989098849</v>
       </c>
       <c r="R17">
-        <v>3199.152984900208</v>
+        <v>2685.878090188965</v>
       </c>
       <c r="S17">
-        <v>0.00554256964794668</v>
+        <v>0.002289039944707193</v>
       </c>
       <c r="T17">
-        <v>0.00554256964794668</v>
+        <v>0.002289039944707193</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H18">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I18">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J18">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N18">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O18">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P18">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q18">
-        <v>610.7332899914586</v>
+        <v>793.40561945142</v>
       </c>
       <c r="R18">
-        <v>5496.599609923128</v>
+        <v>7140.650575062779</v>
       </c>
       <c r="S18">
-        <v>0.009522922570027017</v>
+        <v>0.006085620362748899</v>
       </c>
       <c r="T18">
-        <v>0.009522922570027017</v>
+        <v>0.006085620362748899</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H19">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I19">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J19">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N19">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O19">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P19">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q19">
-        <v>11403.67417160954</v>
+        <v>4043.570971952655</v>
       </c>
       <c r="R19">
-        <v>102633.0675444858</v>
+        <v>36392.13874757389</v>
       </c>
       <c r="S19">
-        <v>0.1778129797895467</v>
+        <v>0.03101520488618389</v>
       </c>
       <c r="T19">
-        <v>0.1778129797895467</v>
+        <v>0.03101520488618389</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H20">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I20">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J20">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N20">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O20">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P20">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q20">
-        <v>145.5444008438633</v>
+        <v>613.9772077570523</v>
       </c>
       <c r="R20">
-        <v>1309.89960759477</v>
+        <v>5525.794869813471</v>
       </c>
       <c r="S20">
-        <v>0.002269416261485384</v>
+        <v>0.004709359382119691</v>
       </c>
       <c r="T20">
-        <v>0.002269416261485384</v>
+        <v>0.004709359382119691</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H21">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I21">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J21">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>10.815932</v>
       </c>
       <c r="O21">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P21">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q21">
-        <v>202.3236712400067</v>
+        <v>541.5716829065924</v>
       </c>
       <c r="R21">
-        <v>1820.91304116006</v>
+        <v>4874.145146159332</v>
       </c>
       <c r="S21">
-        <v>0.003154752961524549</v>
+        <v>0.004153990822075782</v>
       </c>
       <c r="T21">
-        <v>0.003154752961524549</v>
+        <v>0.004153990822075782</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H22">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I22">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J22">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N22">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O22">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P22">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q22">
-        <v>473.756032284675</v>
+        <v>185.779282339652</v>
       </c>
       <c r="R22">
-        <v>4263.804290562075</v>
+        <v>1672.013541056868</v>
       </c>
       <c r="S22">
-        <v>0.007387090382109798</v>
+        <v>0.001424973753481574</v>
       </c>
       <c r="T22">
-        <v>0.0073870903821098</v>
+        <v>0.001424973753481574</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H23">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I23">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J23">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N23">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O23">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P23">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q23">
-        <v>20.63239286794333</v>
+        <v>36.92780007972766</v>
       </c>
       <c r="R23">
-        <v>185.69153581149</v>
+        <v>332.350200717549</v>
       </c>
       <c r="S23">
-        <v>0.0003217127393179269</v>
+        <v>0.0002832455009230889</v>
       </c>
       <c r="T23">
-        <v>0.000321712739317927</v>
+        <v>0.000283245500923089</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H24">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I24">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J24">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N24">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O24">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P24">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q24">
-        <v>35.449383985385</v>
+        <v>98.17590673170088</v>
       </c>
       <c r="R24">
-        <v>319.044455868465</v>
+        <v>883.583160585308</v>
       </c>
       <c r="S24">
-        <v>0.0005527482198533803</v>
+        <v>0.0007530338612308734</v>
       </c>
       <c r="T24">
-        <v>0.0005527482198533803</v>
+        <v>0.0007530338612308734</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H25">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I25">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J25">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N25">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O25">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P25">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q25">
-        <v>661.9145070006866</v>
+        <v>500.3509388803163</v>
       </c>
       <c r="R25">
-        <v>5957.23056300618</v>
+        <v>4503.158449922847</v>
       </c>
       <c r="S25">
-        <v>0.01032097103832886</v>
+        <v>0.003837817362922049</v>
       </c>
       <c r="T25">
-        <v>0.01032097103832886</v>
+        <v>0.003837817362922049</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H26">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I26">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J26">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N26">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O26">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P26">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q26">
-        <v>2187.630594436579</v>
+        <v>4223.93524768436</v>
       </c>
       <c r="R26">
-        <v>19688.67534992922</v>
+        <v>38015.41722915924</v>
       </c>
       <c r="S26">
-        <v>0.03411085837965878</v>
+        <v>0.03239864417901906</v>
       </c>
       <c r="T26">
-        <v>0.03411085837965878</v>
+        <v>0.03239864417901906</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H27">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I27">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J27">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>10.815932</v>
       </c>
       <c r="O27">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P27">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q27">
-        <v>3041.06135733925</v>
+        <v>3725.812117576309</v>
       </c>
       <c r="R27">
-        <v>27369.55221605325</v>
+        <v>33532.30905818679</v>
       </c>
       <c r="S27">
-        <v>0.04741806662782038</v>
+        <v>0.02857791466888811</v>
       </c>
       <c r="T27">
-        <v>0.04741806662782039</v>
+        <v>0.02857791466888811</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H28">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I28">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J28">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N28">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O28">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P28">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q28">
-        <v>7120.87297426624</v>
+        <v>1278.092491137668</v>
       </c>
       <c r="R28">
-        <v>64087.85676839617</v>
+        <v>11502.83242023901</v>
       </c>
       <c r="S28">
-        <v>0.1110329550987531</v>
+        <v>0.009803290396306683</v>
       </c>
       <c r="T28">
-        <v>0.1110329550987531</v>
+        <v>0.009803290396306685</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H29">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I29">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J29">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N29">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O29">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P29">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q29">
-        <v>310.1187927027769</v>
+        <v>254.0495549436156</v>
       </c>
       <c r="R29">
-        <v>2791.069134324992</v>
+        <v>2286.445994492541</v>
       </c>
       <c r="S29">
-        <v>0.004835559644145329</v>
+        <v>0.001948623890238059</v>
       </c>
       <c r="T29">
-        <v>0.004835559644145329</v>
+        <v>0.001948623890238059</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H30">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I30">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J30">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N30">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O30">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P30">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q30">
-        <v>532.8281714083413</v>
+        <v>675.4137900856635</v>
       </c>
       <c r="R30">
-        <v>4795.453542675072</v>
+        <v>6078.724110770972</v>
       </c>
       <c r="S30">
-        <v>0.008308178877103098</v>
+        <v>0.005180593398202417</v>
       </c>
       <c r="T30">
-        <v>0.008308178877103098</v>
+        <v>0.005180593398202417</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H31">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I31">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J31">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N31">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O31">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P31">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q31">
-        <v>9949.021865633393</v>
+        <v>3442.22870205438</v>
       </c>
       <c r="R31">
-        <v>89541.19679070055</v>
+        <v>30980.05831848942</v>
       </c>
       <c r="S31">
-        <v>0.1551311618779739</v>
+        <v>0.0264027586506696</v>
       </c>
       <c r="T31">
-        <v>0.1551311618779739</v>
+        <v>0.0264027586506696</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H32">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I32">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J32">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N32">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O32">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P32">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q32">
-        <v>1159.474321696776</v>
+        <v>30490.60316021955</v>
       </c>
       <c r="R32">
-        <v>10435.26889527098</v>
+        <v>274415.428441976</v>
       </c>
       <c r="S32">
-        <v>0.01807922438222978</v>
+        <v>0.2338705838668307</v>
       </c>
       <c r="T32">
-        <v>0.01807922438222978</v>
+        <v>0.2338705838668307</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H33">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I33">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J33">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>10.815932</v>
       </c>
       <c r="O33">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P33">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q33">
-        <v>1611.804371133933</v>
+        <v>26894.88641873367</v>
       </c>
       <c r="R33">
-        <v>14506.23934020539</v>
+        <v>242053.9777686031</v>
       </c>
       <c r="S33">
-        <v>0.02513222789043347</v>
+        <v>0.2062905334056386</v>
       </c>
       <c r="T33">
-        <v>0.02513222789043347</v>
+        <v>0.2062905334056385</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H34">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I34">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J34">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N34">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O34">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P34">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q34">
-        <v>3774.160675355105</v>
+        <v>9225.948946707704</v>
       </c>
       <c r="R34">
-        <v>33967.44607819594</v>
+        <v>83033.54052036934</v>
       </c>
       <c r="S34">
-        <v>0.05884899426188178</v>
+        <v>0.07076534549199012</v>
       </c>
       <c r="T34">
-        <v>0.05884899426188178</v>
+        <v>0.07076534549199012</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H35">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I35">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J35">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N35">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O35">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P35">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q35">
-        <v>164.3672280543704</v>
+        <v>1833.864325231489</v>
       </c>
       <c r="R35">
-        <v>1479.305052489334</v>
+        <v>16504.7789270834</v>
       </c>
       <c r="S35">
-        <v>0.002562913159414698</v>
+        <v>0.01406619994431594</v>
       </c>
       <c r="T35">
-        <v>0.002562913159414698</v>
+        <v>0.01406619994431594</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H36">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I36">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J36">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N36">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O36">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P36">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q36">
-        <v>282.4062637429577</v>
+        <v>4875.49468324158</v>
       </c>
       <c r="R36">
-        <v>2541.656373686619</v>
+        <v>43879.45214917421</v>
       </c>
       <c r="S36">
-        <v>0.004403449143819269</v>
+        <v>0.03739626868703527</v>
       </c>
       <c r="T36">
-        <v>0.004403449143819268</v>
+        <v>0.03739626868703527</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H37">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I37">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J37">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N37">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O37">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P37">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q37">
-        <v>5273.118509376421</v>
+        <v>24847.8310359034</v>
       </c>
       <c r="R37">
-        <v>47458.06658438779</v>
+        <v>223630.4793231306</v>
       </c>
       <c r="S37">
-        <v>0.0822216507439282</v>
+        <v>0.1905891045072144</v>
       </c>
       <c r="T37">
-        <v>0.0822216507439282</v>
+        <v>0.1905891045072143</v>
       </c>
     </row>
   </sheetData>
